--- a/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE  LAS VENTAS SEMANA 50 DE DICIEMBRE -25.xlsx
+++ b/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE  LAS VENTAS SEMANA 50 DE DICIEMBRE -25.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF0417-B80E-4D91-AECB-97DCC28DFE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31769C33-FA9F-4DF8-BA90-FA357A53F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunes 08-12-25" sheetId="1" r:id="rId1"/>
     <sheet name="Martes 09-12-25" sheetId="2" r:id="rId2"/>
     <sheet name="Miercoles 10-12-25" sheetId="3" r:id="rId3"/>
-    <sheet name="Jueves" sheetId="4" r:id="rId4"/>
+    <sheet name="Jueves 11-12-25" sheetId="4" r:id="rId4"/>
     <sheet name="Viernes" sheetId="5" r:id="rId5"/>
     <sheet name="Sabado" sheetId="6" r:id="rId6"/>
     <sheet name="Domingo" sheetId="8" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t>Producto</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Colocar x si descuento</t>
-  </si>
-  <si>
-    <t>Jueves 01-02-03</t>
   </si>
   <si>
     <t>Viernes 01-02-03</t>
@@ -330,6 +327,48 @@
   </si>
   <si>
     <t>CUENTA SEMANA PASADA $ 20921 MENOS 69 DE ROLLO Y JABON QUEDA $ 20852</t>
+  </si>
+  <si>
+    <t>Jueves 11 DE DICIEMBRE-25</t>
+  </si>
+  <si>
+    <t>SELLO DE ESCAPE DS150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTROS </t>
+  </si>
+  <si>
+    <t>CENTRIFUJO DE DS150</t>
+  </si>
+  <si>
+    <t>BANDA POWER LINK 743-20-30</t>
+  </si>
+  <si>
+    <t>AFLOJATODO AXPRO</t>
+  </si>
+  <si>
+    <t>AUXILIAR LED</t>
+  </si>
+  <si>
+    <t>FILTRO DE AIRE DS150</t>
+  </si>
+  <si>
+    <t>STIKER</t>
+  </si>
+  <si>
+    <t>MANIJA DE CLUTH DM200</t>
+  </si>
+  <si>
+    <t>BALATA DE TAMBOR DS150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESORTE DE  LA PATA </t>
+  </si>
+  <si>
+    <t>ACEITE LUBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTA DE LA SEMANA PASADA $ 20852 MENOS $ 520 DE PIEZS QUE LLEVO DANIEL QUEDA $ 20332 </t>
   </si>
 </sst>
 </file>
@@ -670,27 +709,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -730,8 +748,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -741,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -764,10 +803,74 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -790,18 +893,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -810,18 +905,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -830,58 +917,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -925,14 +964,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla110" displayName="Tabla110" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="25">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Importa" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Importa" dataDxfId="24">
       <calculatedColumnFormula>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -944,14 +983,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla111" displayName="Tabla111" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="23">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Importa" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Importa" dataDxfId="22">
       <calculatedColumnFormula>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -963,14 +1002,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla112" displayName="Tabla112" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#" dataDxfId="21">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Importa" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Importa" dataDxfId="20">
       <calculatedColumnFormula>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -982,14 +1021,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla113" displayName="Tabla113" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#" dataDxfId="19">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Importa" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Importa" dataDxfId="18">
       <calculatedColumnFormula>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1001,14 +1040,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla114" displayName="Tabla114" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#" dataDxfId="17">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Importa" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Importa" dataDxfId="16">
       <calculatedColumnFormula>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1020,14 +1059,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla115" displayName="Tabla115" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#" dataDxfId="15">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Importa" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Importa" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1334,50 +1373,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla1[Importa])</f>
         <v>2377</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1395,32 +1434,32 @@
         <v>4</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>12</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1429,34 +1468,34 @@
         <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1465,32 +1504,32 @@
         <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1499,32 +1538,32 @@
         <v>550</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>495</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1533,32 +1572,32 @@
         <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>144</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1570,26 +1609,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>68</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1601,26 +1640,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>645</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1629,32 +1668,32 @@
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>61.5</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1663,32 +1702,32 @@
         <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1697,32 +1736,32 @@
         <v>621</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>559</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1734,26 +1773,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1765,24 +1804,24 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1791,18 +1830,18 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -1817,12 +1856,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -1837,12 +1876,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -1857,12 +1896,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -1877,12 +1916,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -1897,12 +1936,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -1917,12 +1956,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -1951,14 +1990,14 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="M24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -1973,12 +2012,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -1993,18 +2032,18 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="31"/>
+      <c r="O26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="14" t="s">
+      <c r="P26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -2019,16 +2058,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="30">
+      <c r="M27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="20"/>
+      <c r="O27" s="23">
         <v>5403</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="34"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -2043,12 +2082,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -2063,16 +2102,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="30">
+      <c r="M29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="20"/>
+      <c r="O29" s="23">
         <v>150</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="34"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -2087,12 +2126,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -2107,12 +2146,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2127,12 +2166,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2147,12 +2186,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2167,12 +2206,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2187,12 +2226,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2207,12 +2246,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="37"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2227,12 +2266,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2247,12 +2286,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="37"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2267,12 +2306,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2287,12 +2326,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2307,12 +2346,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2327,12 +2366,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="37"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="30"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -2347,12 +2386,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -2367,12 +2406,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="37"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="30"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -2387,12 +2426,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="34"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -2407,12 +2446,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="37"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -2427,12 +2466,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="34"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -2447,12 +2486,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="37"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -2467,12 +2506,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -2487,12 +2526,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="37"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -2507,12 +2546,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -2527,12 +2566,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="37"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3251,33 +3290,19 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3286,27 +3311,41 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3342,50 +3381,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla110[Importa])</f>
         <v>2364.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -3403,30 +3442,30 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>20</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3438,28 +3477,28 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3471,26 +3510,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>16</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3502,26 +3541,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>327</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3530,32 +3569,32 @@
         <v>291</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>262</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3567,26 +3606,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3598,26 +3637,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3629,26 +3668,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3660,26 +3699,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>42</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -3691,26 +3730,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3722,26 +3761,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3753,24 +3792,24 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3782,12 +3821,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -3799,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3808,18 +3847,18 @@
         <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -3831,7 +3870,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3840,18 +3879,18 @@
         <v>290</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>261</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -3863,7 +3902,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3875,12 +3914,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>16</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -3892,7 +3931,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -3904,12 +3943,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>24</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -3921,7 +3960,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3933,12 +3972,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -3950,7 +3989,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3962,12 +4001,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>155</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -3979,7 +4018,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4002,7 +4041,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4014,14 +4053,14 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>450</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -4036,12 +4075,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -4057,17 +4096,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -4084,10 +4123,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -4104,10 +4143,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -4124,10 +4163,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -4144,10 +4183,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -4164,10 +4203,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4184,10 +4223,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4204,10 +4243,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4224,10 +4263,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4244,10 +4283,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4264,10 +4303,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4284,10 +4323,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4304,10 +4343,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -4324,10 +4363,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -4344,10 +4383,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -4364,10 +4403,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -4384,10 +4423,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -4404,10 +4443,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -4424,10 +4463,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5257,40 +5296,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5305,7 +5344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5325,50 +5364,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla111[Importa])</f>
         <v>1075</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -5386,32 +5425,32 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>13</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628472224</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5420,34 +5459,34 @@
         <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>189</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5459,26 +5498,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>99</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -5487,32 +5526,32 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>29</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="1">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5521,32 +5560,32 @@
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5555,32 +5594,32 @@
         <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -5589,32 +5628,32 @@
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>49.5</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5626,26 +5665,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -5657,26 +5696,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>240</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5688,26 +5727,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5719,26 +5758,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>4</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5750,24 +5789,24 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -5776,18 +5815,18 @@
         <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>140.5</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -5799,7 +5838,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5811,12 +5850,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -5831,12 +5870,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -5851,12 +5890,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -5871,12 +5910,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -5891,12 +5930,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -5911,12 +5950,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -5945,14 +5984,14 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -5967,12 +6006,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -5988,17 +6027,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -6014,15 +6053,15 @@
         <v/>
       </c>
       <c r="M27" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N27" s="15">
         <v>69</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -6039,10 +6078,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -6059,10 +6098,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -6079,10 +6118,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -6099,10 +6138,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6119,10 +6158,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6139,10 +6178,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6159,10 +6198,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6179,10 +6218,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6199,10 +6238,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -6219,10 +6258,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -6239,10 +6278,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -6259,10 +6298,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -6279,10 +6318,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -6299,10 +6338,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -6319,10 +6358,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -6339,10 +6378,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -6359,10 +6398,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7192,40 +7231,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7240,8 +7279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7260,50 +7299,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla112[Importa])</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="24" t="s">
+        <v>1430</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -7321,320 +7360,463 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>280</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+        <v>252</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>350</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+        <v>315</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+        <v>67.5</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>280</v>
+      </c>
+      <c r="H9" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+        <v>280</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="H10" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+        <v>108</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+        <v>86.5</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="5" t="str">
+        <v>46002.793628587962</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>96</v>
+      </c>
+      <c r="H16" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="5" t="str">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="H17" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="5" t="str">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="H18" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -7649,12 +7831,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -7669,12 +7851,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -7689,12 +7871,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -7709,12 +7891,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -7743,14 +7925,14 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -7765,12 +7947,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -7786,17 +7968,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -7811,12 +7993,16 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="M27" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="15">
+        <v>520</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -7833,10 +8019,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -7853,10 +8039,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -7873,10 +8059,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -7893,10 +8079,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -7913,10 +8099,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -7933,10 +8119,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -7953,10 +8139,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -7973,10 +8159,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -7993,10 +8179,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8013,10 +8199,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8033,10 +8219,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8053,10 +8239,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8073,10 +8259,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -8093,10 +8279,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -8113,10 +8299,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -8133,10 +8319,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -8153,10 +8339,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -8986,40 +9172,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9054,50 +9240,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla113[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -9115,18 +9301,18 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -9141,21 +9327,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -9165,19 +9351,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -9187,19 +9373,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -9209,19 +9395,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -9231,19 +9417,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -9253,19 +9439,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -9275,19 +9461,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -9297,19 +9483,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -9319,19 +9505,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -9341,19 +9527,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -9363,17 +9549,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -9383,12 +9569,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -9403,12 +9589,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -9423,12 +9609,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -9443,12 +9629,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -9463,12 +9649,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -9483,12 +9669,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -9503,12 +9689,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -9537,14 +9723,14 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -9559,12 +9745,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -9580,17 +9766,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -9607,10 +9793,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -9627,10 +9813,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -9647,10 +9833,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -9667,10 +9853,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -9687,10 +9873,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -9707,10 +9893,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -9727,10 +9913,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -9747,10 +9933,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -9767,10 +9953,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -9787,10 +9973,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -9807,10 +9993,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -9827,10 +10013,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -9847,10 +10033,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -9867,10 +10053,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -9887,10 +10073,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -9907,10 +10093,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -9927,10 +10113,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -9947,10 +10133,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -10780,40 +10966,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10848,50 +11034,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla114[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -10909,18 +11095,18 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -10935,21 +11121,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -10959,19 +11145,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -10981,19 +11167,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -11003,19 +11189,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -11025,19 +11211,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -11047,19 +11233,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -11069,19 +11255,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -11091,19 +11277,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -11113,19 +11299,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -11135,19 +11321,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -11157,17 +11343,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -11177,12 +11363,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -11197,12 +11383,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -11217,12 +11403,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -11237,12 +11423,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -11257,12 +11443,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -11277,12 +11463,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -11297,12 +11483,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -11331,14 +11517,14 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -11353,12 +11539,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -11374,17 +11560,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -11401,10 +11587,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -11421,10 +11607,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -11441,10 +11627,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -11461,10 +11647,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -11481,10 +11667,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -11501,10 +11687,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -11521,10 +11707,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -11541,10 +11727,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -11561,10 +11747,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -11581,10 +11767,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -11601,10 +11787,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -11621,10 +11807,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -11641,10 +11827,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -11661,10 +11847,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -11681,10 +11867,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -11701,10 +11887,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -11721,10 +11907,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -11741,10 +11927,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -12574,40 +12760,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12642,50 +12828,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -12703,18 +12889,18 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -12729,21 +12915,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -12753,19 +12939,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -12775,19 +12961,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -12797,19 +12983,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -12819,19 +13005,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -12841,19 +13027,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -12863,19 +13049,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -12885,19 +13071,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -12907,19 +13093,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -12929,19 +13115,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -12951,17 +13137,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46001.800182870371</v>
+        <v>46002.793628587962</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -12971,12 +13157,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -12991,12 +13177,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -13011,12 +13197,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -13031,12 +13217,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -13051,12 +13237,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -13071,12 +13257,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -13091,12 +13277,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -13125,14 +13311,14 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -13147,12 +13333,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -13168,17 +13354,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -13195,10 +13381,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -13215,10 +13401,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -13235,10 +13421,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -13255,10 +13441,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -13275,10 +13461,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -13295,10 +13481,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -13315,10 +13501,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -13335,10 +13521,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -13355,10 +13541,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -13375,10 +13561,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -13395,10 +13581,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -13415,10 +13601,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -13435,10 +13621,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -13455,10 +13641,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -13475,10 +13661,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -13495,10 +13681,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -13515,10 +13701,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -13535,10 +13721,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -14368,40 +14554,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14427,18 +14613,18 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>45576</v>
@@ -14450,10 +14636,10 @@
     </row>
     <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>1.2</v>
@@ -14462,7 +14648,7 @@
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>45778</v>

--- a/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE  LAS VENTAS SEMANA 50 DE DICIEMBRE -25.xlsx
+++ b/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE  LAS VENTAS SEMANA 50 DE DICIEMBRE -25.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31769C33-FA9F-4DF8-BA90-FA357A53F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564223B7-03B4-413B-9E51-FC6B24AF8D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunes 08-12-25" sheetId="1" r:id="rId1"/>
     <sheet name="Martes 09-12-25" sheetId="2" r:id="rId2"/>
     <sheet name="Miercoles 10-12-25" sheetId="3" r:id="rId3"/>
     <sheet name="Jueves 11-12-25" sheetId="4" r:id="rId4"/>
-    <sheet name="Viernes" sheetId="5" r:id="rId5"/>
+    <sheet name="VIERNES 12-12-25" sheetId="5" r:id="rId5"/>
     <sheet name="Sabado" sheetId="6" r:id="rId6"/>
     <sheet name="Domingo" sheetId="8" r:id="rId7"/>
     <sheet name="Cambios" sheetId="7" r:id="rId8"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="125">
   <si>
     <t>Producto</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>Colocar x si descuento</t>
-  </si>
-  <si>
-    <t>Viernes 01-02-03</t>
-  </si>
-  <si>
-    <t>Sabado 01-02-03</t>
   </si>
   <si>
     <t>Cambio</t>
@@ -370,6 +364,384 @@
   <si>
     <t xml:space="preserve">CUENTA DE LA SEMANA PASADA $ 20852 MENOS $ 520 DE PIEZS QUE LLEVO DANIEL QUEDA $ 20332 </t>
   </si>
+  <si>
+    <t>Viernes 12 DE DICIEMBRE-25</t>
+  </si>
+  <si>
+    <t>P.MERCADO</t>
+  </si>
+  <si>
+    <t>LUNES 08 DE DICIEMBRE-25</t>
+  </si>
+  <si>
+    <t>CINTA,NOTAS</t>
+  </si>
+  <si>
+    <t>ROLLOJAB</t>
+  </si>
+  <si>
+    <t>MIERCOLES 10 DE DICIEMBRE-25</t>
+  </si>
+  <si>
+    <t>FILTROS</t>
+  </si>
+  <si>
+    <t>JUEVES 11 DE DICIEMBRE-25</t>
+  </si>
+  <si>
+    <t>P.NASAKI</t>
+  </si>
+  <si>
+    <t>VIERNES 12 DE DICIEMBRE-25</t>
+  </si>
+  <si>
+    <t>PAGOYAS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DE EGRESOS </t>
+  </si>
+  <si>
+    <t>SELLO SE ESCAPE DS150</t>
+  </si>
+  <si>
+    <t>LLANTA 130-60-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADENA 520 CON ORING </t>
+  </si>
+  <si>
+    <t>CADENA 428 CON ORING</t>
+  </si>
+  <si>
+    <t>HUESO DE CADEAN DM200 ITALIKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASCO CON INTERCOMUNICADOR </t>
+  </si>
+  <si>
+    <t>CHICOTE DE ACELERADOR FZ16</t>
+  </si>
+  <si>
+    <t>LLANTA 1550-60-17</t>
+  </si>
+  <si>
+    <t>ACEITE MOTUL 7100-10W-40</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CORTES DE LA SEMANA           SEMANA PSADA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LUNES 08 DE DICIEMBRE-25               $26474</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VENTA $ 2377                 MENOS $11904</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MARTES 09 DE DICIEMBRE-25          $ 14570 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VENTA $ 2364.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIERCOLES 10 DE DICIEMBRE-25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VENTA $ 1075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JUEVES 11 DE DICIEMBRE-25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VENTA $ 1430</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VIERNES 12 DE DICIEMBRE-25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VENTA $ 4925</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TOTAL $12171.5 
+TOTAL EN CAJA $26741.5 </t>
+    </r>
+  </si>
+  <si>
+    <t>Sabado 13 DE DICIEMBRE-25</t>
+  </si>
+  <si>
+    <t>ACEUTE LUBER</t>
+  </si>
+  <si>
+    <t>JUNTA DE CABEZA DS150</t>
+  </si>
+  <si>
+    <t>CAMARA 3.00.17</t>
+  </si>
+  <si>
+    <t>BUJIA D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARNES DE 4 PINES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURCA DEL EJE </t>
+  </si>
+  <si>
+    <t>JUNTA DE CARTEL FT150</t>
+  </si>
+  <si>
+    <t>BALATA DE GNS125</t>
+  </si>
+  <si>
+    <t>FARO DE D125</t>
+  </si>
+  <si>
+    <t>BUJIA C9</t>
+  </si>
+  <si>
+    <t>CAJA DE TRASMISION FT150</t>
+  </si>
+  <si>
+    <t>JUNTAS DE MOTOR FT150</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CUENTA DE HOY SABADO$ 3164.5 MENOS $ 300 PAGO DE YAS QUEDA $ 2864.5 MAS LO DE AYER 26741.5 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TOTAL EN CAJA $ 29606</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -381,7 +753,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +833,22 @@
       <b/>
       <sz val="14"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1374,7 +1762,7 @@
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C2" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -1396,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla1[Importa])</f>
@@ -1413,10 +1801,10 @@
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1434,14 +1822,14 @@
         <v>4</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>12</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
@@ -1452,14 +1840,14 @@
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1468,14 +1856,14 @@
         <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="38"/>
       <c r="M5" s="36"/>
@@ -1488,14 +1876,14 @@
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1504,7 +1892,7 @@
         <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -1522,14 +1910,14 @@
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1538,7 +1926,7 @@
         <v>550</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -1556,14 +1944,14 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1572,7 +1960,7 @@
         <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -1590,14 +1978,14 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1621,14 +2009,14 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1652,14 +2040,14 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1668,7 +2056,7 @@
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -1686,14 +2074,14 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1702,7 +2090,7 @@
         <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -1720,14 +2108,14 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1736,7 +2124,7 @@
         <v>621</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -1754,14 +2142,14 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1785,14 +2173,14 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1814,14 +2202,14 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1830,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -1991,7 +2379,7 @@
         <v/>
       </c>
       <c r="M24" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
@@ -2033,14 +2421,14 @@
         <v/>
       </c>
       <c r="M26" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N26" s="31"/>
       <c r="O26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
@@ -2059,7 +2447,7 @@
         <v/>
       </c>
       <c r="M27" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N27" s="20"/>
       <c r="O27" s="23">
@@ -2103,7 +2491,7 @@
         <v/>
       </c>
       <c r="M29" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N29" s="20"/>
       <c r="O29" s="23">
@@ -3382,7 +3770,7 @@
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C2" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -3404,7 +3792,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla110[Importa])</f>
@@ -3421,10 +3809,10 @@
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -3442,7 +3830,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
@@ -3458,14 +3846,14 @@
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3478,7 +3866,7 @@
         <v>90</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="38"/>
       <c r="M5" s="36"/>
@@ -3491,14 +3879,14 @@
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3522,14 +3910,14 @@
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3553,14 +3941,14 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3569,7 +3957,7 @@
         <v>291</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -3587,14 +3975,14 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3618,14 +4006,14 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3649,14 +4037,14 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3680,14 +4068,14 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3711,14 +4099,14 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -3742,14 +4130,14 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3773,14 +4161,14 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3802,14 +4190,14 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3838,7 +4226,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3847,7 +4235,7 @@
         <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -3870,7 +4258,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3879,7 +4267,7 @@
         <v>290</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H18" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -3902,7 +4290,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3931,7 +4319,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -3960,7 +4348,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3989,7 +4377,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4018,7 +4406,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4041,7 +4429,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4054,7 +4442,7 @@
         <v>450</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
@@ -4096,13 +4484,13 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -5365,7 +5753,7 @@
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C2" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -5387,7 +5775,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla111[Importa])</f>
@@ -5404,10 +5792,10 @@
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -5425,14 +5813,14 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>13</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
@@ -5443,14 +5831,14 @@
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628472224</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5459,14 +5847,14 @@
         <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>189</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="38"/>
       <c r="M5" s="36"/>
@@ -5479,14 +5867,14 @@
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5510,14 +5898,14 @@
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -5526,7 +5914,7 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -5544,14 +5932,14 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="1">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5560,7 +5948,7 @@
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -5578,14 +5966,14 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5594,7 +5982,7 @@
         <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -5612,14 +6000,14 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -5628,7 +6016,7 @@
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -5646,14 +6034,14 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5677,14 +6065,14 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -5708,14 +6096,14 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5739,14 +6127,14 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5770,14 +6158,14 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5799,14 +6187,14 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -5815,7 +6203,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -5838,7 +6226,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5985,7 +6373,7 @@
         <v/>
       </c>
       <c r="M24" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
@@ -6027,13 +6415,13 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -6053,7 +6441,7 @@
         <v/>
       </c>
       <c r="M27" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N27" s="15">
         <v>69</v>
@@ -7279,7 +7667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -7300,7 +7688,7 @@
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C2" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -7322,7 +7710,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla112[Importa])</f>
@@ -7339,10 +7727,10 @@
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -7360,14 +7748,14 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>14</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
@@ -7378,14 +7766,14 @@
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7398,7 +7786,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="38"/>
       <c r="M5" s="36"/>
@@ -7411,14 +7799,14 @@
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7427,7 +7815,7 @@
         <v>280</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -7445,14 +7833,14 @@
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7461,7 +7849,7 @@
         <v>350</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -7479,14 +7867,14 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7495,7 +7883,7 @@
         <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -7513,14 +7901,14 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -7544,14 +7932,14 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7575,14 +7963,14 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -7606,14 +7994,14 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -7637,14 +8025,14 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -7653,7 +8041,7 @@
         <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -7671,14 +8059,14 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -7687,7 +8075,7 @@
         <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -7705,14 +8093,14 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -7734,14 +8122,14 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -7770,7 +8158,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -7799,7 +8187,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -7926,7 +8314,7 @@
         <v/>
       </c>
       <c r="M24" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
@@ -7968,13 +8356,13 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -7994,7 +8382,7 @@
         <v/>
       </c>
       <c r="M27" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N27" s="15">
         <v>520</v>
@@ -9221,7 +9609,7 @@
   <dimension ref="B2:R103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9237,11 +9625,12 @@
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C2" s="34" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -9263,11 +9652,11 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla113[Importa])</f>
-        <v>0</v>
+        <v>4925</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>6</v>
@@ -9280,10 +9669,10 @@
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -9301,13 +9690,15 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="36"/>
+        <v>9</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>110</v>
+      </c>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
@@ -9315,20 +9706,29 @@
       <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="38"/>
       <c r="M5" s="36"/>
@@ -9341,15 +9741,27 @@
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>620</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>558</v>
       </c>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
@@ -9363,15 +9775,27 @@
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>540</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -9385,15 +9809,27 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>480</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>432</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -9407,15 +9843,27 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>99</v>
       </c>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
@@ -9429,15 +9877,24 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1450</v>
+      </c>
+      <c r="H10" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>1450</v>
       </c>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
@@ -9451,15 +9908,24 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>56</v>
+      </c>
+      <c r="H11" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>56</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -9473,15 +9939,24 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>1500</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -9495,15 +9970,24 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>280</v>
+      </c>
+      <c r="H13" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>280</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
@@ -9517,7 +10001,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -9539,7 +10023,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -9559,7 +10043,7 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -9724,7 +10208,7 @@
         <v/>
       </c>
       <c r="M24" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
@@ -9766,13 +10250,13 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -9791,9 +10275,15 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
+      <c r="M27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="15">
+        <v>5403</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="P27" s="40"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="41"/>
@@ -9811,9 +10301,15 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
+      <c r="M28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="15">
+        <v>150</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="P28" s="40"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="41"/>
@@ -9831,9 +10327,15 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
+      <c r="M29" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="15">
+        <v>69</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="41"/>
@@ -9851,9 +10353,15 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
+      <c r="M30" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="15">
+        <v>520</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>95</v>
+      </c>
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="41"/>
@@ -9871,9 +10379,15 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
+      <c r="M31" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" s="15">
+        <v>4262</v>
+      </c>
+      <c r="O31" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
       <c r="R31" s="41"/>
@@ -9891,9 +10405,15 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
+      <c r="M32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="15">
+        <v>1500</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="P32" s="40"/>
       <c r="Q32" s="40"/>
       <c r="R32" s="41"/>
@@ -9911,9 +10431,15 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
+      <c r="M33" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="15">
+        <v>11904</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="P33" s="40"/>
       <c r="Q33" s="40"/>
       <c r="R33" s="41"/>
@@ -11014,8 +11540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:R103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11035,7 +11561,7 @@
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C2" s="34" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -11057,11 +11583,11 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla114[Importa])</f>
-        <v>0</v>
+        <v>3164.5</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>6</v>
@@ -11074,10 +11600,10 @@
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -11095,13 +11621,15 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="36"/>
+        <v>21</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>124</v>
+      </c>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
@@ -11109,20 +11637,29 @@
       <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>90</v>
+      </c>
+      <c r="H5" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="38"/>
       <c r="M5" s="36"/>
@@ -11135,15 +11672,24 @@
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
@@ -11157,15 +11703,24 @@
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -11179,15 +11734,27 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>117</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -11201,15 +11768,27 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>51.5</v>
       </c>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
@@ -11223,15 +11802,27 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>13.5</v>
       </c>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
@@ -11245,15 +11836,27 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>799</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>719.5</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -11267,15 +11870,27 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -11289,15 +11904,24 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="H13" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
@@ -11311,15 +11935,24 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>123</v>
+      </c>
+      <c r="H14" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>123</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
@@ -11333,15 +11966,24 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+      <c r="H15" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>240</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
@@ -11353,15 +11995,24 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="5" t="str">
+        <v>46004.783286111109</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="H16" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
@@ -11375,13 +12026,25 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="5" t="str">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>85.5</v>
       </c>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -11395,13 +12058,25 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="5" t="str">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
@@ -11415,13 +12090,22 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="5" t="str">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>36</v>
+      </c>
+      <c r="H19" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
@@ -11435,13 +12119,22 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="5" t="str">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>57</v>
       </c>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
@@ -11455,13 +12148,22 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="5" t="str">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>563</v>
+      </c>
+      <c r="H21" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>563</v>
       </c>
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
@@ -11475,13 +12177,25 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="5" t="str">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>51.5</v>
       </c>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
@@ -11495,13 +12209,25 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="5" t="str">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G23))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11509,16 +12235,25 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="5" t="str">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>560</v>
+      </c>
+      <c r="H24" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>560</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
@@ -11531,13 +12266,22 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="5" t="str">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>72</v>
+      </c>
+      <c r="H25" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
@@ -11560,13 +12304,13 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -12829,7 +13573,7 @@
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C2" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -12851,7 +13595,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla115[Importa])</f>
@@ -12868,10 +13612,10 @@
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -12889,7 +13633,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
@@ -12916,7 +13660,7 @@
         <v/>
       </c>
       <c r="J5" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="38"/>
       <c r="M5" s="36"/>
@@ -12929,7 +13673,7 @@
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -12951,7 +13695,7 @@
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -12973,7 +13717,7 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -12995,7 +13739,7 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -13017,7 +13761,7 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -13039,7 +13783,7 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -13061,7 +13805,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -13083,7 +13827,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -13105,7 +13849,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -13127,7 +13871,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -13147,7 +13891,7 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46002.793628587962</v>
+        <v>46004.783286111109</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -13312,7 +14056,7 @@
         <v/>
       </c>
       <c r="M24" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
@@ -13354,13 +14098,13 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
@@ -14613,18 +15357,18 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>45576</v>
@@ -14636,10 +15380,10 @@
     </row>
     <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>1.2</v>
@@ -14648,7 +15392,7 @@
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>45778</v>
